--- a/results/mp/logistic/corona/confidence/126/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,79 +52,88 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>lowest</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>lowest</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -133,12 +142,6 @@
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -172,79 +178,91 @@
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>true</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>god</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>ensure</t>
@@ -253,64 +271,58 @@
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>shop</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -668,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -779,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -808,16 +820,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -829,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -858,16 +870,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -879,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -887,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8116438356164384</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C6">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D6">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -905,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6">
         <v>0.8947368421052632</v>
@@ -937,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -958,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K7">
         <v>0.8846153846153846</v>
@@ -987,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1005,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1029,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1037,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1055,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>316</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>316</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1079,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1087,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1105,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
         <v>13</v>
@@ -1129,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1137,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7307692307692307</v>
+        <v>0.72</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1158,16 +1170,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.8611111111111112</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1179,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6756756756756757</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1205,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>0.8484848484848485</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1229,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1237,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1255,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>0.8433420365535248</v>
+        <v>0.796875</v>
       </c>
       <c r="L13">
-        <v>323</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>323</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1279,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1287,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6521739130434783</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1308,16 +1320,16 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>0.8103448275862069</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1329,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1337,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6086956521739131</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1355,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.796875</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L15">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1379,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.559322033898305</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1405,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>0.79375</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L16">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="M16">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1429,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1437,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.55</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1455,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0.7804878048780488</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L17">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1479,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1487,7 +1499,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5384615384615384</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -1505,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1529,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1537,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5348837209302325</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C19">
-        <v>276</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>276</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1555,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K19">
         <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1579,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1587,13 +1599,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5333333333333333</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1608,16 +1620,16 @@
         <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K20">
-        <v>0.7735849056603774</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1629,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1637,13 +1649,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5291005291005291</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1655,19 +1667,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K21">
-        <v>0.7727272727272727</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1679,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1687,13 +1699,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5098039215686274</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1705,19 +1717,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K22">
-        <v>0.7676056338028169</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L22">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1729,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1737,13 +1749,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4615384615384616</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1755,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1779,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1787,13 +1799,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4615384615384616</v>
+        <v>0.525</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1805,19 +1817,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K24">
-        <v>0.7446808510638298</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1829,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1837,13 +1849,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4516129032258064</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1855,19 +1867,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K25">
-        <v>0.7441860465116279</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1879,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1899,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4496644295302014</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C26">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,19 +1917,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K26">
-        <v>0.7407407407407407</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1929,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1937,13 +1949,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4181818181818182</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1955,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K27">
-        <v>0.7142857142857143</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1979,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1987,13 +1999,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4133333333333333</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2005,19 +2017,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K28">
-        <v>0.6825396825396826</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2029,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2037,37 +2049,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4107142857142857</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>23</v>
       </c>
-      <c r="D29">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>33</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K29">
-        <v>0.6818181818181818</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2079,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2087,37 +2099,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>22</v>
       </c>
-      <c r="D30">
-        <v>22</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>33</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K30">
-        <v>0.6666666666666666</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2129,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2137,49 +2149,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3513513513513514</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>34</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L31">
+        <v>22</v>
+      </c>
+      <c r="M31">
+        <v>22</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>13</v>
-      </c>
-      <c r="D31">
-        <v>13</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>24</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31">
-        <v>0.65</v>
-      </c>
-      <c r="L31">
-        <v>221</v>
-      </c>
-      <c r="M31">
-        <v>221</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2187,13 +2199,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.253968253968254</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C32">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2205,19 +2217,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K32">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2229,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2237,7 +2249,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2467532467532468</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C33">
         <v>19</v>
@@ -2255,19 +2267,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K33">
-        <v>0.6285714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2279,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2287,13 +2299,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2444444444444444</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2305,19 +2317,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2329,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2337,13 +2349,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.175</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2355,19 +2367,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K35">
-        <v>0.6</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2379,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2387,13 +2399,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1340482573726542</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2405,31 +2417,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>323</v>
+        <v>59</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K36">
-        <v>0.5986394557823129</v>
+        <v>0.602510460251046</v>
       </c>
       <c r="L36">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="M36">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="N36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2437,13 +2449,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.05333333333333334</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2455,19 +2467,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K37">
-        <v>0.5941422594142259</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L37">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="M37">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2479,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2487,37 +2499,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01160541586073501</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="C38">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E38">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3066</v>
+        <v>278</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K38">
-        <v>0.5757575757575758</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2529,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2537,89 +2549,137 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0112464854732896</v>
+        <v>0.009668063164679342</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E39">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="F39">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2110</v>
+        <v>3073</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K39">
+        <v>0.58</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>29</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.00794392523364486</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>0.15</v>
+      </c>
+      <c r="F40">
+        <v>0.85</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2123</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40">
         <v>0.574468085106383</v>
       </c>
-      <c r="L39">
+      <c r="L40">
         <v>54</v>
       </c>
-      <c r="M39">
+      <c r="M40">
         <v>54</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L40">
-        <v>16</v>
-      </c>
-      <c r="M40">
-        <v>16</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>12</v>
-      </c>
-    </row>
     <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.004396984924623116</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>31</v>
+      </c>
+      <c r="E41">
+        <v>0.55</v>
+      </c>
+      <c r="F41">
+        <v>0.45</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>3170</v>
+      </c>
       <c r="J41" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2631,12 +2691,12 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K42">
         <v>0.5652173913043478</v>
@@ -2662,16 +2722,16 @@
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K43">
-        <v>0.5538461538461539</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2683,21 +2743,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K44">
-        <v>0.5280898876404494</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2709,21 +2769,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K45">
-        <v>0.5098039215686274</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2735,21 +2795,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2761,21 +2821,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2787,12 +2847,12 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K48">
         <v>0.4642857142857143</v>
@@ -2818,16 +2878,16 @@
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K49">
-        <v>0.4444444444444444</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2839,21 +2899,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K50">
-        <v>0.3424657534246575</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2865,21 +2925,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K51">
-        <v>0.3205128205128205</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2891,21 +2951,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K52">
-        <v>0.296875</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2917,21 +2977,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K53">
-        <v>0.288135593220339</v>
+        <v>0.296875</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2943,59 +3003,137 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K54">
-        <v>0.09239130434782608</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>167</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K55">
-        <v>0.005956112852664576</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N55">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>3171</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K56">
+        <v>0.1284403669724771</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K57">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L57">
+        <v>15</v>
+      </c>
+      <c r="M57">
+        <v>15</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58">
+        <v>0.005334170065892689</v>
+      </c>
+      <c r="L58">
+        <v>17</v>
+      </c>
+      <c r="M58">
+        <v>31</v>
+      </c>
+      <c r="N58">
+        <v>0.55</v>
+      </c>
+      <c r="O58">
+        <v>0.45</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3170</v>
       </c>
     </row>
   </sheetData>
